--- a/res/RestaurantData.xlsx
+++ b/res/RestaurantData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarrezab/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211671F6-C8CA-754F-85A3-210903F1BA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E251795-29EE-7540-9159-D6976934130C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="169">
   <si>
     <t>Restaurant Name</t>
   </si>
@@ -148,9 +148,6 @@
     <t>1100-2359</t>
   </si>
   <si>
-    <t>92 Hamline Ave S, Saint Paul, MN 55116-1613</t>
-  </si>
-  <si>
     <t>A small place with big burgers.</t>
   </si>
   <si>
@@ -163,25 +160,16 @@
     <t>31-60</t>
   </si>
   <si>
-    <t>211 N 1st St, Minneapolis, MN 55401-1480</t>
-  </si>
-  <si>
     <t>Housed in what was once a horse stable, dating back to 1906, Spoon &amp; Stable provided us with one of the best meals we have ever experienced anywhere.</t>
   </si>
   <si>
     <t>Murray’s</t>
   </si>
   <si>
-    <t>26 S 6th St, Minneapolis, MN 55402-1571</t>
-  </si>
-  <si>
     <t>Minneapolis’ third generation family owned steakhouse since 1946. Famous for signature Silver Butter Knife Steak, garlic toast and fresh raspberry pie. Classic steakhouse fare and warm hospitality.</t>
   </si>
   <si>
     <t>Tavern on Grand</t>
-  </si>
-  <si>
-    <t>656 Grand Ave, Saint Paul, MN 55105-3402</t>
   </si>
   <si>
     <t>The Tavern on Grand has earned a virtually undisputed reputation for preparing the world's finest walleye, serving more than any restaurant anywhere.</t>
@@ -196,9 +184,6 @@
     <t>0900-1300</t>
   </si>
   <si>
-    <t>413 14th Ave SE, Minneapolis, MN 55414-2005</t>
-  </si>
-  <si>
     <t xml:space="preserve">Classic diner fare for breakfast &amp; lunch draws locals to this narrow nook with an old-school vibe.
 </t>
   </si>
@@ -209,16 +194,10 @@
     <t>1100-2300</t>
   </si>
   <si>
-    <t>3500 Cedar Ave S, Minneapolis, MN 55407-2339</t>
-  </si>
-  <si>
     <t>Circa-1954 beer and burger joint celebrated for its cheese-stuffed patty, the Jucy Lucy.</t>
   </si>
   <si>
     <t>Annie’s Parlour</t>
-  </si>
-  <si>
-    <t>313 14th Ave SE, Minneapolis, MN 55414-2003</t>
   </si>
   <si>
     <t>Buzzy institution offers classic burger meals in a warm space, plus outdoor seating with city views.</t>
@@ -270,9 +249,6 @@
   </si>
   <si>
     <t>1100-2000</t>
-  </si>
-  <si>
-    <t>1681 Grand Ave, Saint Paul, MN 55105-1805</t>
   </si>
   <si>
     <t>Family-run Thai pick serving spiced-to-order classics in a casual dining room with large murals.</t>
@@ -410,9 +386,6 @@
     <t>Shish Mediterranean Grill &amp; Cafe</t>
   </si>
   <si>
-    <t>1668 Grand Ave, Saint Paul, MN 55105-1804</t>
-  </si>
-  <si>
     <t>Shish is a family owned and operated Mediterranean inspired restaurant located on West Grand Avenue in St Paul. Shish features traditional Middle Eastern cuisine</t>
   </si>
   <si>
@@ -422,9 +395,6 @@
     <t>Mexican</t>
   </si>
   <si>
-    <t>11 Cesar Chavez St, Saint Paul, MN 55107-2225</t>
-  </si>
-  <si>
     <t>Boca Chica Mexican Restaurant has served the flavorful, authentic cuisine of Mexico since 1964. The authenticity of the food is maintained by making everything from scratch, the old-fashioned way, with fresh ingredients.</t>
   </si>
   <si>
@@ -432,9 +402,6 @@
   </si>
   <si>
     <t>0800-1900</t>
-  </si>
-  <si>
-    <t>175 Cesar Chavez St Ste 2, Saint Paul, MN 55107-3395</t>
   </si>
   <si>
     <t>Mexican market &amp; cafe serving classic eats, such as tacos, enchiladas &amp; tamales, cafeteria-style.</t>
@@ -492,6 +459,75 @@
   </si>
   <si>
     <t>3.6</t>
+  </si>
+  <si>
+    <t>92 Hamline Ave S, Saint Paul, MN 55116</t>
+  </si>
+  <si>
+    <t>211 N 1st St, Minneapolis, MN 55401</t>
+  </si>
+  <si>
+    <t>26 S 6th St, Minneapolis, MN 55402</t>
+  </si>
+  <si>
+    <t>656 Grand Ave, Saint Paul, MN 55105</t>
+  </si>
+  <si>
+    <t>413 14th Ave SE, Minneapolis, MN 55414</t>
+  </si>
+  <si>
+    <t>3500 Cedar Ave S, Minneapolis, MN 55407</t>
+  </si>
+  <si>
+    <t>313 14th Ave SE, Minneapolis, MN 55414</t>
+  </si>
+  <si>
+    <t>1681 Grand Ave, Saint Paul, MN 55105</t>
+  </si>
+  <si>
+    <t>1668 Grand Ave, Saint Paul, MN 55105</t>
+  </si>
+  <si>
+    <t>11 Cesar Chavez St, Saint Paul, MN 55107</t>
+  </si>
+  <si>
+    <t>175 Cesar Chavez St Ste 2, Saint Paul, MN 55107</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>55104</t>
+  </si>
+  <si>
+    <t>55102</t>
+  </si>
+  <si>
+    <t>55105</t>
+  </si>
+  <si>
+    <t>55116</t>
+  </si>
+  <si>
+    <t>55401</t>
+  </si>
+  <si>
+    <t>55402</t>
+  </si>
+  <si>
+    <t>55414</t>
+  </si>
+  <si>
+    <t>55407</t>
+  </si>
+  <si>
+    <t>55423</t>
+  </si>
+  <si>
+    <t>55107</t>
+  </si>
+  <si>
+    <t>55418</t>
   </si>
 </sst>
 </file>
@@ -555,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -584,6 +620,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,10 +844,10 @@
   <dimension ref="A1:AA999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -819,8 +858,9 @@
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="42.6640625" customWidth="1"/>
-    <col min="13" max="13" width="146.33203125" customWidth="1"/>
+    <col min="12" max="12" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="175.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -861,9 +901,11 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -886,7 +928,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -915,10 +957,12 @@
       <c r="L2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -941,7 +985,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -965,15 +1009,17 @@
         <v>23</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -996,7 +1042,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>27</v>
@@ -1025,10 +1071,12 @@
       <c r="L4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -1051,7 +1099,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
@@ -1075,15 +1123,17 @@
         <v>15</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -1106,7 +1156,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>37</v>
@@ -1130,15 +1180,17 @@
         <v>37</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -1161,7 +1213,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>41</v>
@@ -1185,15 +1237,17 @@
         <v>41</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -1210,45 +1264,47 @@
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="13" t="s">
+      <c r="L8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -1265,13 +1321,13 @@
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>16</v>
@@ -1295,15 +1351,17 @@
         <v>16</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -1320,13 +1378,13 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>41</v>
@@ -1350,15 +1408,17 @@
         <v>41</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1375,45 +1435,47 @@
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N11" s="4"/>
+        <v>150</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -1430,45 +1492,47 @@
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N12" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -1485,45 +1549,47 @@
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N13" s="4"/>
+      <c r="M13" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1540,45 +1606,47 @@
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N14" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -1595,45 +1663,47 @@
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N15" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -1650,45 +1720,47 @@
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N16" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -1705,45 +1777,47 @@
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N17" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -1760,13 +1834,13 @@
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>15</v>
@@ -1775,30 +1849,32 @@
         <v>15</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N18" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -1815,45 +1891,47 @@
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N19" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
@@ -1870,45 +1948,47 @@
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N20" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -1925,45 +2005,47 @@
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N21" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
@@ -1980,45 +2062,47 @@
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N22" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
@@ -2035,45 +2119,47 @@
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N23" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -2090,45 +2176,47 @@
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="N24" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -2145,45 +2233,47 @@
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N25" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
@@ -2200,45 +2290,47 @@
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N26" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -2255,13 +2347,13 @@
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>17</v>
@@ -2285,15 +2377,17 @@
         <v>17</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N27" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
@@ -2310,45 +2404,47 @@
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N28" s="4"/>
+        <v>154</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -2365,45 +2461,47 @@
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="N29" s="4"/>
+        <v>155</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
@@ -2420,45 +2518,47 @@
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="K30" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>143</v>
-      </c>
       <c r="L30" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N30" s="5"/>
+        <v>156</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
@@ -2475,45 +2575,47 @@
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>143</v>
-      </c>
       <c r="L31" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N31" s="5"/>
+        <v>130</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
@@ -2570,7 +2672,6 @@
       <c r="J33" s="5"/>
       <c r="K33" s="6"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -2599,7 +2700,6 @@
       <c r="J34" s="5"/>
       <c r="K34" s="6"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -2628,7 +2728,6 @@
       <c r="J35" s="5"/>
       <c r="K35" s="6"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -2657,7 +2756,6 @@
       <c r="J36" s="5"/>
       <c r="K36" s="6"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
@@ -2686,7 +2784,6 @@
       <c r="J37" s="5"/>
       <c r="K37" s="6"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
@@ -2715,7 +2812,6 @@
       <c r="J38" s="5"/>
       <c r="K38" s="6"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
@@ -2744,7 +2840,6 @@
       <c r="J39" s="5"/>
       <c r="K39" s="6"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -2773,7 +2868,6 @@
       <c r="J40" s="5"/>
       <c r="K40" s="6"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -2802,7 +2896,6 @@
       <c r="J41" s="5"/>
       <c r="K41" s="6"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
@@ -2831,7 +2924,6 @@
       <c r="J42" s="5"/>
       <c r="K42" s="6"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
@@ -2860,7 +2952,6 @@
       <c r="J43" s="5"/>
       <c r="K43" s="6"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
@@ -2889,7 +2980,6 @@
       <c r="J44" s="5"/>
       <c r="K44" s="6"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
@@ -2918,7 +3008,6 @@
       <c r="J45" s="5"/>
       <c r="K45" s="6"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
